--- a/playwright/report/template_core.xlsx
+++ b/playwright/report/template_core.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v.biallo\Documents\MyT-EL\java\testautomation\playwright\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v.biallo\Documents\MyT-EL\java\test-automation\playwright\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D148BB21-D56C-42AC-9857-1820079DBC86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3A5F69-D996-41C8-ACA0-E9EDEB61005B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="564" xr2:uid="{28821A91-DAD2-45F1-AABF-CF4D7C245AE0}"/>
   </bookViews>
@@ -4114,9 +4114,9 @@
   <dimension ref="A1:R398"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A244" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
+      <selection pane="bottomLeft" activeCell="I246" sqref="I246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="14.4"/>
